--- a/Archive/2019-Hurricane-Milestones.xlsx
+++ b/Archive/2019-Hurricane-Milestones.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Project-Orange\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Project-Orange\Archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7592CE2-B9E4-4EC1-97ED-C312C5A02F78}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E6F69D-C742-4113-A0A5-65C9FA177A73}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{36E3AB38-53BB-47FC-9DB1-027F49F2C3F6}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t xml:space="preserve">Hurricane </t>
   </si>
@@ -41,45 +41,21 @@
     <t>IDTag</t>
   </si>
   <si>
-    <t xml:space="preserve">Texas Hurricane, Rain, Wind, Hail, Floods </t>
-  </si>
-  <si>
     <t xml:space="preserve">Texas Tropical Storm Alex </t>
   </si>
   <si>
     <t>DR-1931</t>
   </si>
   <si>
-    <t>DR-689</t>
-  </si>
-  <si>
-    <t>DR-627</t>
-  </si>
-  <si>
-    <t>DR-232</t>
-  </si>
-  <si>
     <t>DR-1287</t>
   </si>
   <si>
-    <t>DR-118</t>
-  </si>
-  <si>
-    <t>DR-292</t>
-  </si>
-  <si>
-    <t>DR-159</t>
-  </si>
-  <si>
     <t>EM-3277</t>
   </si>
   <si>
     <t>DR-1780</t>
   </si>
   <si>
-    <t>DR-816</t>
-  </si>
-  <si>
     <t>EM-3290</t>
   </si>
   <si>
@@ -101,45 +77,21 @@
     <t>EM-3261</t>
   </si>
   <si>
-    <t>DR-72</t>
-  </si>
-  <si>
     <t>EM-3313</t>
   </si>
   <si>
     <t xml:space="preserve">Alex </t>
   </si>
   <si>
-    <t xml:space="preserve">Alicia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allen </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beulah </t>
-  </si>
-  <si>
     <t xml:space="preserve">Bret </t>
   </si>
   <si>
-    <t xml:space="preserve">Carla </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Celia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cindy </t>
-  </si>
-  <si>
     <t xml:space="preserve">Dean </t>
   </si>
   <si>
     <t xml:space="preserve">Dolly </t>
   </si>
   <si>
-    <t xml:space="preserve">Gilbert </t>
-  </si>
-  <si>
     <t xml:space="preserve">Gustav </t>
   </si>
   <si>
@@ -153,6 +105,39 @@
   </si>
   <si>
     <t xml:space="preserve">Rita </t>
+  </si>
+  <si>
+    <t>CODE</t>
+  </si>
+  <si>
+    <t>1606</t>
+  </si>
+  <si>
+    <t>1780</t>
+  </si>
+  <si>
+    <t>1791</t>
+  </si>
+  <si>
+    <t>1931</t>
+  </si>
+  <si>
+    <t>3216</t>
+  </si>
+  <si>
+    <t>3261</t>
+  </si>
+  <si>
+    <t>3277</t>
+  </si>
+  <si>
+    <t>3290</t>
+  </si>
+  <si>
+    <t>3294</t>
+  </si>
+  <si>
+    <t>3313</t>
   </si>
 </sst>
 </file>
@@ -196,10 +181,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,251 +528,206 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230FD3E9-2E15-40AB-9BC9-EFF0391AC489}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.21875" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" customWidth="1"/>
+    <col min="3" max="3" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B2" s="3">
+        <v>1287</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1">
+        <v>36373</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1">
+        <v>38596</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1">
+        <v>39630</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1">
+        <v>39692</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1">
         <v>40391</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1">
+        <v>38596</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1">
+        <v>38596</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="1">
-        <v>30529</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="1">
-        <v>29434</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1">
+        <v>39295</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="1">
-        <v>24716</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1">
+        <v>39661</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="1">
+        <v>39692</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>40330</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="1">
-        <v>36373</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="1">
-        <v>22525</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="1">
-        <v>7519</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="1">
-        <v>23255</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="1">
-        <v>39295</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="1">
-        <v>39630</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="1">
-        <v>32356</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="1">
-        <v>39661</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="B13" s="3">
+        <v>4332</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="1">
         <v>42948</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="1">
-        <v>39692</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="1">
-        <v>39692</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="1">
-        <v>38596</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="1">
-        <v>38596</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="1">
-        <v>38596</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="1">
-        <v>20911</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="1">
-        <v>40330</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState ref="A2:D13">
+    <sortCondition ref="B2:B13"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/Archive/2019-Hurricane-Milestones.xlsx
+++ b/Archive/2019-Hurricane-Milestones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Project-Orange\Archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E6F69D-C742-4113-A0A5-65C9FA177A73}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437901CD-BFAA-4D5F-A37D-9E4F3E018F2B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{36E3AB38-53BB-47FC-9DB1-027F49F2C3F6}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{36E3AB38-53BB-47FC-9DB1-027F49F2C3F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hurricane-Milestones" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t xml:space="preserve">Hurricane </t>
   </si>
@@ -138,13 +138,19 @@
   </si>
   <si>
     <t>3313</t>
+  </si>
+  <si>
+    <t>https://www.fema.gov/api/open/v1/HousingAssistanceOwners?$filter=state%20eq%20%27TX%27%20and%20disasterNumber%20eq%20%274332%27%20and%20totalDamage%20gt%20%2710000%27</t>
+  </si>
+  <si>
+    <t>export_csv = df_wp.to_csv (output_data_file, encoding='utf-8', index=False, header=True)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +162,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -178,16 +192,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -528,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230FD3E9-2E15-40AB-9BC9-EFF0391AC489}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -724,12 +741,25 @@
         <v>42948</v>
       </c>
     </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D13">
     <sortCondition ref="B2:B13"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="A21" r:id="rId1" xr:uid="{1514B18F-6D38-451A-8994-8A387FCA3FB6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
 
